--- a/Estimates/Original_Model_Data/Nutrition_Tables.xlsx
+++ b/Estimates/Original_Model_Data/Nutrition_Tables.xlsx
@@ -1,16 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corywhitney/Dropbox/Contributions/17_Kenya_Fruit_Tree/kenya_fruit_trees/Models/Estimates/Original_Model_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F174FA-5C3E-154C-81EF-15F114270986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="39600" windowHeight="10840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="zinc" sheetId="2" r:id="rId2"/>
+    <sheet name="Original_estimates" sheetId="1" r:id="rId1"/>
+    <sheet name="Revision" sheetId="3" r:id="rId2"/>
+    <sheet name="Zinc_original_Source" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_Ref342214343" localSheetId="1">Revision!$A$3</definedName>
+    <definedName name="_Ref342215211" localSheetId="1">Revision!$A$13</definedName>
+    <definedName name="_Toc342226836" localSheetId="1">Revision!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="72">
   <si>
     <t>Age</t>
   </si>
@@ -222,16 +234,31 @@
   </si>
   <si>
     <t>"</t>
+  </si>
+  <si>
+    <t>Table 1. Daily Dietary Reference Intake Values for energy by age group and reproductive status in kcal per day for Active Individuals</t>
+  </si>
+  <si>
+    <t>Table 2. Recommended Dietary Allowances for Vitamin A in mcg of retinol activity equivalents (RAE) per day by age group and reproductive status</t>
+  </si>
+  <si>
+    <t>* Adequate Intake (AI), recommended average daily intake levels, based on estimates of intake by healthy people</t>
+  </si>
+  <si>
+    <t>Table 4 Zinc</t>
+  </si>
+  <si>
+    <t>Daily</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -313,8 +340,39 @@
       <color rgb="FF333333"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAEAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +754,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -749,10 +813,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="36" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="37" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +823,41 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="36" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="37" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="37" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="36" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="37" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="278">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1042,10 +1137,18 @@
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="37"/>
+    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1370,16 +1473,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13:Q20"/>
+      <selection pane="topRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="19"/>
   <cols>
     <col min="2" max="5" width="14.28515625" style="19"/>
     <col min="6" max="6" width="14.28515625" style="25"/>
@@ -1391,7 +1494,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="16"/>
@@ -1409,7 +1512,7 @@
       <c r="N1" s="16"/>
       <c r="Q1" s="16"/>
     </row>
-    <row r="2" spans="1:17" ht="18" hidden="1" thickBot="1">
+    <row r="2" spans="1:17" ht="20" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1539,7 @@
       </c>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="1:17" hidden="1">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1562,7 @@
       <c r="N3" s="24"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" hidden="1">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1585,7 @@
       <c r="N4" s="24"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" hidden="1">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1608,7 @@
       <c r="N5" s="24"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" hidden="1">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1528,7 +1631,7 @@
       <c r="N6" s="24"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" hidden="1">
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1551,7 +1654,7 @@
       <c r="N7" s="24"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="1:17" hidden="1">
+    <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1681,7 @@
       </c>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="1:17" hidden="1">
+    <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1605,7 +1708,7 @@
       </c>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="18" hidden="1" thickBot="1">
+    <row r="10" spans="1:17" ht="20" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1629,11 +1732,11 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18" thickBot="1">
+    <row r="12" spans="1:17" ht="20" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,60 +1798,60 @@
         <v>146000</v>
       </c>
       <c r="C13" s="19">
-        <f>B13*0.9</f>
+        <f t="shared" ref="C13:C20" si="0">B13*0.9</f>
         <v>131400</v>
       </c>
       <c r="D13" s="19">
-        <f>B13+B13*0.1</f>
+        <f t="shared" ref="D13:D20" si="1">B13+B13*0.1</f>
         <v>160600</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="29">
         <v>55487296.960000001</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="M13" s="29"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="19">
-        <f t="shared" ref="B14" si="0">B4*365</f>
+        <f t="shared" ref="B14" si="2">B4*365</f>
         <v>182500</v>
       </c>
       <c r="C14" s="19">
-        <f>B14*0.9</f>
+        <f t="shared" si="0"/>
         <v>164250</v>
       </c>
       <c r="D14" s="19">
-        <f>B14+B14*0.1</f>
+        <f t="shared" si="1"/>
         <v>200750</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="29">
         <v>86698901.5</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1757,30 +1860,30 @@
         <v>7</v>
       </c>
       <c r="B15" s="19">
-        <f t="shared" ref="B15" si="1">B5*365</f>
+        <f t="shared" ref="B15" si="3">B5*365</f>
         <v>109500</v>
       </c>
       <c r="C15" s="19">
-        <f>B15*0.9</f>
+        <f t="shared" si="0"/>
         <v>98550</v>
       </c>
       <c r="D15" s="19">
-        <f>B15+B15*0.1</f>
+        <f t="shared" si="1"/>
         <v>120450</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="29">
         <v>31211604.539999999</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1789,30 +1892,30 @@
         <v>8</v>
       </c>
       <c r="B16" s="19">
-        <f t="shared" ref="B16" si="2">B6*365</f>
+        <f t="shared" ref="B16" si="4">B6*365</f>
         <v>146000</v>
       </c>
       <c r="C16" s="19">
-        <f>B16*0.9</f>
+        <f t="shared" si="0"/>
         <v>131400</v>
       </c>
       <c r="D16" s="19">
-        <f>B16+B16*0.1</f>
+        <f t="shared" si="1"/>
         <v>160600</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="29">
         <v>55487296.960000001</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1821,30 +1924,30 @@
         <v>9</v>
       </c>
       <c r="B17" s="19">
-        <f t="shared" ref="B17:F17" si="3">B7*365</f>
+        <f t="shared" ref="B17" si="5">B7*365</f>
         <v>219000</v>
       </c>
       <c r="C17" s="19">
-        <f>B17*0.9</f>
+        <f t="shared" si="0"/>
         <v>197100</v>
       </c>
       <c r="D17" s="19">
-        <f>B17+B17*0.1</f>
+        <f t="shared" si="1"/>
         <v>240900</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="29">
         <v>124846418.16</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1857,18 +1960,18 @@
         <v>328500</v>
       </c>
       <c r="C18" s="19">
-        <f>B18*0.9</f>
+        <f t="shared" si="0"/>
         <v>295650</v>
       </c>
       <c r="D18" s="19">
-        <f>B18+B18*0.1</f>
+        <f t="shared" si="1"/>
         <v>361350</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="29">
         <v>280904440.86000001</v>
       </c>
       <c r="F18" s="25">
-        <f t="shared" ref="B18:N18" si="4">F8*365</f>
+        <f t="shared" ref="F18:N18" si="6">F8*365</f>
         <v>255500</v>
       </c>
       <c r="G18" s="19">
@@ -1879,11 +1982,11 @@
         <f>F18+F18*0.1</f>
         <v>281050</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="29">
         <v>169929846.94</v>
       </c>
       <c r="J18" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>273750</v>
       </c>
       <c r="K18" s="19">
@@ -1894,22 +1997,22 @@
         <f>J18+J18*0.1</f>
         <v>301125</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="29">
         <v>195072528.37</v>
       </c>
       <c r="N18" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>438000</v>
       </c>
       <c r="O18" s="19">
-        <f t="shared" ref="O18:O19" si="5">N18*0.9</f>
+        <f t="shared" ref="O18:O19" si="7">N18*0.9</f>
         <v>394200</v>
       </c>
       <c r="P18" s="19">
         <f>N18+N18*0.1</f>
         <v>481800</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="29">
         <v>499385672.63999999</v>
       </c>
     </row>
@@ -1918,22 +2021,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="19">
-        <f t="shared" ref="B19:N20" si="6">B9*365</f>
+        <f t="shared" ref="B19:N20" si="8">B9*365</f>
         <v>328500</v>
       </c>
       <c r="C19" s="19">
-        <f>B19*0.9</f>
+        <f t="shared" si="0"/>
         <v>295650</v>
       </c>
       <c r="D19" s="19">
-        <f>B19+B19*0.1</f>
+        <f t="shared" si="1"/>
         <v>361350</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="29">
         <v>280904440.86000001</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>255500</v>
       </c>
       <c r="G19" s="19">
@@ -1944,11 +2047,11 @@
         <f>F19+F19*0.1</f>
         <v>281050</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="29">
         <v>169929846.94</v>
       </c>
       <c r="J19" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>281050</v>
       </c>
       <c r="K19" s="19">
@@ -1959,46 +2062,46 @@
         <f>J19+J19*0.1</f>
         <v>309155</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="29">
         <v>205615114.80000001</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>474500</v>
       </c>
       <c r="O19" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>427050</v>
       </c>
       <c r="P19" s="19">
         <f>N19+N19*0.1</f>
         <v>521950</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="29">
         <v>586084574.13999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18" thickBot="1">
+    <row r="20" spans="1:17" ht="20" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>328500</v>
       </c>
       <c r="C20" s="19">
-        <f>B20*0.9</f>
+        <f t="shared" si="0"/>
         <v>295650</v>
       </c>
       <c r="D20" s="19">
-        <f>B20+B20*0.1</f>
+        <f t="shared" si="1"/>
         <v>361350</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="29">
         <v>280904440.86000001</v>
       </c>
       <c r="F20" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>255500</v>
       </c>
       <c r="G20" s="19">
@@ -2009,7 +2112,7 @@
         <f>F20+F20*0.1</f>
         <v>281050</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="29">
         <v>169929846.94</v>
       </c>
     </row>
@@ -2018,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18" thickBot="1">
+    <row r="25" spans="1:17" ht="20" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2317,7 @@
       </c>
       <c r="Q32" s="18"/>
     </row>
-    <row r="33" spans="1:19" ht="18" thickBot="1">
+    <row r="33" spans="1:19" ht="20" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -2242,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="18" thickBot="1">
+    <row r="35" spans="1:19" ht="20" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,15 +2381,15 @@
         <v>98.550000000000011</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" ref="F36:F43" si="7">F26*365</f>
+        <f t="shared" ref="F36:F43" si="9">F26*365</f>
         <v>98.550000000000011</v>
       </c>
       <c r="J36" s="25">
-        <f t="shared" ref="J36:N36" si="8">J26*365</f>
+        <f t="shared" ref="J36:N36" si="10">J26*365</f>
         <v>0</v>
       </c>
       <c r="N36" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2299,15 +2402,15 @@
         <v>4015</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4015</v>
       </c>
       <c r="J37" s="25">
-        <f t="shared" ref="J37:N37" si="9">J27*365</f>
+        <f t="shared" ref="J37:N37" si="11">J27*365</f>
         <v>0</v>
       </c>
       <c r="N37" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2316,19 +2419,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="19">
-        <f t="shared" ref="B38:B43" si="10">B28*365</f>
+        <f t="shared" ref="B38:B43" si="12">B28*365</f>
         <v>2555</v>
       </c>
       <c r="F38" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2555</v>
       </c>
       <c r="J38" s="25">
-        <f t="shared" ref="J38:N38" si="11">J28*365</f>
+        <f t="shared" ref="J38:N38" si="13">J28*365</f>
         <v>0</v>
       </c>
       <c r="N38" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2337,19 +2440,19 @@
         <v>8</v>
       </c>
       <c r="B39" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3650</v>
       </c>
       <c r="F39" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3650</v>
       </c>
       <c r="J39" s="25">
-        <f t="shared" ref="J39:N39" si="12">J29*365</f>
+        <f t="shared" ref="J39:N39" si="14">J29*365</f>
         <v>0</v>
       </c>
       <c r="N39" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S39" s="4"/>
@@ -2359,19 +2462,19 @@
         <v>9</v>
       </c>
       <c r="B40" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4015</v>
       </c>
       <c r="F40" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4015</v>
       </c>
       <c r="J40" s="25">
-        <f t="shared" ref="J40:N40" si="13">J30*365</f>
+        <f t="shared" ref="J40:N40" si="15">J30*365</f>
         <v>0</v>
       </c>
       <c r="N40" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2380,19 +2483,19 @@
         <v>10</v>
       </c>
       <c r="B41" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2920</v>
       </c>
       <c r="F41" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2920</v>
       </c>
       <c r="J41" s="25">
-        <f t="shared" ref="J41:N41" si="14">J31*365</f>
+        <f t="shared" ref="J41:N41" si="16">J31*365</f>
         <v>9855</v>
       </c>
       <c r="N41" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3650</v>
       </c>
     </row>
@@ -2401,40 +2504,40 @@
         <v>11</v>
       </c>
       <c r="B42" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6570</v>
       </c>
       <c r="F42" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6570</v>
       </c>
       <c r="J42" s="25">
-        <f t="shared" ref="J42:N42" si="15">J32*365</f>
+        <f t="shared" ref="J42:N42" si="17">J32*365</f>
         <v>9855</v>
       </c>
       <c r="N42" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3285</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="18" thickBot="1">
+    <row r="43" spans="1:19" ht="20" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2920</v>
       </c>
       <c r="F43" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2920</v>
       </c>
       <c r="J43" s="25">
-        <f t="shared" ref="J43:N43" si="16">J33*365</f>
+        <f t="shared" ref="J43:N43" si="18">J33*365</f>
         <v>0</v>
       </c>
       <c r="N43" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2443,7 +2546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="18" thickBot="1">
+    <row r="47" spans="1:19" ht="20" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2747,7 @@
       </c>
       <c r="Q54" s="20"/>
     </row>
-    <row r="55" spans="1:19" ht="18" thickBot="1">
+    <row r="55" spans="1:19" ht="20" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -2689,7 +2792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="27" thickBot="1">
+    <row r="58" spans="1:19" ht="31" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -2728,15 +2831,15 @@
         <v>208050</v>
       </c>
       <c r="F59" s="25">
-        <f t="shared" ref="F59:N59" si="17">F48*365</f>
+        <f t="shared" ref="F59:N59" si="19">F48*365</f>
         <v>189800</v>
       </c>
       <c r="J59" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N59" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P59" s="7">
@@ -2749,19 +2852,19 @@
         <v>6</v>
       </c>
       <c r="B60" s="19">
-        <f t="shared" ref="B60:N60" si="18">B49*365</f>
+        <f t="shared" ref="B60:N60" si="20">B49*365</f>
         <v>271195</v>
       </c>
       <c r="F60" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>246740</v>
       </c>
       <c r="J60" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N60" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P60" s="7">
@@ -2774,19 +2877,19 @@
         <v>7</v>
       </c>
       <c r="B61" s="19">
-        <f t="shared" ref="B61:N61" si="19">B50*365</f>
+        <f t="shared" ref="B61:N61" si="21">B50*365</f>
         <v>381790</v>
       </c>
       <c r="F61" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>362080</v>
       </c>
       <c r="J61" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N61" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P61" s="7">
@@ -2799,19 +2902,19 @@
         <v>8</v>
       </c>
       <c r="B62" s="19">
-        <f t="shared" ref="B62:N62" si="20">B51*365</f>
+        <f t="shared" ref="B62:N62" si="22">B51*365</f>
         <v>635830</v>
       </c>
       <c r="F62" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>599330</v>
       </c>
       <c r="J62" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N62" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P62" s="7">
@@ -2824,19 +2927,19 @@
         <v>9</v>
       </c>
       <c r="B63" s="19">
-        <f t="shared" ref="B63:N63" si="21">B52*365</f>
+        <f t="shared" ref="B63:N63" si="23">B52*365</f>
         <v>831835</v>
       </c>
       <c r="F63" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>755915</v>
       </c>
       <c r="J63" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N63" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P63" s="7">
@@ -2849,15 +2952,15 @@
         <v>10</v>
       </c>
       <c r="B64" s="19">
-        <f t="shared" ref="B64:J64" si="22">B53*365</f>
+        <f t="shared" ref="B64:J64" si="24">B53*365</f>
         <v>1150480</v>
       </c>
       <c r="F64" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>864320</v>
       </c>
       <c r="J64" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>960680</v>
       </c>
       <c r="N64" s="25">
@@ -2870,11 +2973,11 @@
         <v>11</v>
       </c>
       <c r="B65" s="19">
-        <f t="shared" ref="B65:F65" si="23">B54*365</f>
+        <f t="shared" ref="B65:F65" si="25">B54*365</f>
         <v>1119455</v>
       </c>
       <c r="F65" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>877095</v>
       </c>
       <c r="J65" s="25">
@@ -2886,24 +2989,24 @@
         <v>1010320</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="18" thickBot="1">
+    <row r="66" spans="1:17" ht="20" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="19">
-        <f t="shared" ref="B66:N66" si="24">B55*365</f>
+        <f t="shared" ref="B66:N66" si="26">B55*365</f>
         <v>1119455</v>
       </c>
       <c r="F66" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>877095</v>
       </c>
       <c r="J66" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N66" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -2920,7 +3023,7 @@
       <c r="L68" s="22"/>
       <c r="N68" s="27"/>
     </row>
-    <row r="69" spans="1:17" ht="18" thickBot="1">
+    <row r="69" spans="1:17" ht="20" thickBot="1">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3116,7 +3219,7 @@
       </c>
       <c r="Q76" s="20"/>
     </row>
-    <row r="77" spans="1:17" ht="18" thickBot="1">
+    <row r="77" spans="1:17" ht="20" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -3161,7 +3264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="18" thickBot="1">
+    <row r="80" spans="1:17" ht="20" thickBot="1">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -3201,11 +3304,11 @@
         <v>730</v>
       </c>
       <c r="J81" s="25">
-        <f t="shared" ref="J81:N82" si="25">J70*365</f>
+        <f t="shared" ref="J81:N82" si="27">J70*365</f>
         <v>0</v>
       </c>
       <c r="N81" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -3222,11 +3325,11 @@
         <v>1095</v>
       </c>
       <c r="J82" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N82" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -3235,19 +3338,19 @@
         <v>7</v>
       </c>
       <c r="B83" s="19">
-        <f t="shared" ref="B83:N88" si="26">B72*365</f>
+        <f t="shared" ref="B83:N88" si="28">B72*365</f>
         <v>1095</v>
       </c>
       <c r="F83" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1095</v>
       </c>
       <c r="J83" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N83" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3256,19 +3359,19 @@
         <v>8</v>
       </c>
       <c r="B84" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1825</v>
       </c>
       <c r="F84" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1825</v>
       </c>
       <c r="J84" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N84" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3277,19 +3380,19 @@
         <v>9</v>
       </c>
       <c r="B85" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2920</v>
       </c>
       <c r="F85" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2920</v>
       </c>
       <c r="J85" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N85" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3298,11 +3401,11 @@
         <v>10</v>
       </c>
       <c r="B86" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4015</v>
       </c>
       <c r="F86" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3285</v>
       </c>
       <c r="J86" s="25">
@@ -3319,40 +3422,40 @@
         <v>11</v>
       </c>
       <c r="B87" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4015</v>
       </c>
       <c r="F87" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2920</v>
       </c>
       <c r="J87" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4015</v>
       </c>
       <c r="N87" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18" thickBot="1">
+    <row r="88" spans="1:14" ht="20" thickBot="1">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4015</v>
       </c>
       <c r="F88" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2920</v>
       </c>
       <c r="J88" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N88" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3368,14 +3471,568 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FCD87A-59E5-3845-A1B5-3898508AA494}">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="340" workbookViewId="0">
+      <selection activeCell="C10" sqref="C8:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="6" width="10.7109375" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="39">
+        <v>570</v>
+      </c>
+      <c r="C5" s="39">
+        <v>520</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="39">
+        <v>743</v>
+      </c>
+      <c r="C6" s="39">
+        <v>676</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="40">
+        <v>1046</v>
+      </c>
+      <c r="C7" s="39">
+        <v>922</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="40">
+        <v>1742</v>
+      </c>
+      <c r="C8" s="40">
+        <v>1642</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="40">
+        <v>2279</v>
+      </c>
+      <c r="C9" s="40">
+        <v>2071</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="40">
+        <v>3152</v>
+      </c>
+      <c r="C10" s="40">
+        <v>2368</v>
+      </c>
+      <c r="D10" s="40">
+        <v>2820</v>
+      </c>
+      <c r="E10" s="40">
+        <v>2768</v>
+      </c>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="40">
+        <v>3067</v>
+      </c>
+      <c r="C11" s="40">
+        <v>2403</v>
+      </c>
+      <c r="D11" s="40">
+        <v>2855</v>
+      </c>
+      <c r="E11" s="40">
+        <v>2803</v>
+      </c>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="39">
+        <v>400</v>
+      </c>
+      <c r="C17" s="39">
+        <v>400</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="39">
+        <v>500</v>
+      </c>
+      <c r="C18" s="39">
+        <v>500</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="39">
+        <v>300</v>
+      </c>
+      <c r="C19" s="39">
+        <v>300</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="39">
+        <v>400</v>
+      </c>
+      <c r="C20" s="39">
+        <v>400</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="39">
+        <v>600</v>
+      </c>
+      <c r="C21" s="39">
+        <v>600</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="39">
+        <v>900</v>
+      </c>
+      <c r="C22" s="39">
+        <v>700</v>
+      </c>
+      <c r="D22" s="39">
+        <v>750</v>
+      </c>
+      <c r="E22" s="40">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="39">
+        <v>900</v>
+      </c>
+      <c r="C23" s="39">
+        <v>700</v>
+      </c>
+      <c r="D23" s="39">
+        <v>770</v>
+      </c>
+      <c r="E23" s="40">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="39">
+        <v>900</v>
+      </c>
+      <c r="C24" s="39">
+        <v>700</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="42">
+        <v>2</v>
+      </c>
+      <c r="C31" s="42">
+        <v>2</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="42">
+        <v>3</v>
+      </c>
+      <c r="C32" s="42">
+        <v>3</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="44">
+        <v>3</v>
+      </c>
+      <c r="C33" s="42">
+        <v>3</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="44">
+        <v>5</v>
+      </c>
+      <c r="C34" s="44">
+        <v>5</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="44">
+        <v>8</v>
+      </c>
+      <c r="C35" s="44">
+        <v>8</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="44">
+        <v>11</v>
+      </c>
+      <c r="C36" s="44">
+        <v>9</v>
+      </c>
+      <c r="D36" s="45">
+        <v>12</v>
+      </c>
+      <c r="E36" s="36">
+        <v>13</v>
+      </c>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="44">
+        <v>11</v>
+      </c>
+      <c r="C37" s="44">
+        <v>8</v>
+      </c>
+      <c r="D37" s="45">
+        <v>11</v>
+      </c>
+      <c r="E37" s="36">
+        <v>12</v>
+      </c>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="44">
+        <v>11</v>
+      </c>
+      <c r="C38" s="44">
+        <v>8</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="43"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A39:E39"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A39" r:id="rId1" location="en2" display="https://ods.od.nih.gov/factsheets/Zinc-HealthProfessional/ - en2" xr:uid="{44740E92-CAEC-4C45-A74A-E3DC24279977}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:M41"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" style="9" customWidth="1"/>
     <col min="2" max="3" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
@@ -3387,18 +4044,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1">
+    <row r="3" spans="1:9" ht="16" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -3415,7 +4072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
+    <row r="4" spans="1:9" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
@@ -3428,7 +4085,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
+    <row r="5" spans="1:9" ht="16" thickBot="1">
       <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
@@ -3441,7 +4098,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1">
+    <row r="6" spans="1:9" ht="16" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -3454,7 +4111,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
+    <row r="7" spans="1:9" ht="16" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -3467,7 +4124,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
+    <row r="8" spans="1:9" ht="16" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -3480,7 +4137,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
+    <row r="9" spans="1:9" ht="16" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
@@ -3497,7 +4154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1">
+    <row r="10" spans="1:9" ht="16" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
@@ -3519,8 +4176,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1"/>
-    <row r="14" spans="1:9" ht="15" thickBot="1">
+    <row r="13" spans="1:9" ht="16" thickBot="1"/>
+    <row r="14" spans="1:9" ht="16" thickBot="1">
       <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
@@ -3532,7 +4189,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1">
+    <row r="15" spans="1:9" ht="16" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3544,7 +4201,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
+    <row r="16" spans="1:9" ht="16" thickBot="1">
       <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
@@ -3556,7 +4213,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+    <row r="17" spans="1:13" ht="16" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3568,7 +4225,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+    <row r="18" spans="1:13" ht="16" thickBot="1">
       <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
@@ -3580,7 +4237,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+    <row r="19" spans="1:13" ht="16" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3592,7 +4249,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+    <row r="20" spans="1:13" ht="16" thickBot="1">
       <c r="A20" s="11" t="s">
         <v>37</v>
       </c>
@@ -3604,7 +4261,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" thickBot="1">
+    <row r="21" spans="1:13" ht="20" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3619,7 +4276,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+    <row r="22" spans="1:13" ht="16" thickBot="1">
       <c r="C22" s="15"/>
       <c r="I22" s="1" t="s">
         <v>0</v>
@@ -3637,7 +4294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="27" thickBot="1">
+    <row r="23" spans="1:13" ht="31" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
@@ -3660,7 +4317,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="27" thickBot="1">
+    <row r="24" spans="1:13" ht="31" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>40</v>
       </c>
@@ -3683,7 +4340,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1">
+    <row r="25" spans="1:13" ht="16" thickBot="1">
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
@@ -3706,7 +4363,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1">
+    <row r="26" spans="1:13" ht="16" thickBot="1">
       <c r="A26" s="13" t="s">
         <v>42</v>
       </c>
@@ -3729,7 +4386,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="27" thickBot="1">
+    <row r="27" spans="1:13" ht="31" thickBot="1">
       <c r="A27" s="11" t="s">
         <v>43</v>
       </c>
@@ -3752,7 +4409,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" ht="27" thickBot="1">
+    <row r="28" spans="1:13" ht="31" thickBot="1">
       <c r="A28" s="13" t="s">
         <v>44</v>
       </c>
@@ -3779,7 +4436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="27" thickBot="1">
+    <row r="29" spans="1:13" ht="31" thickBot="1">
       <c r="A29" s="11" t="s">
         <v>45</v>
       </c>
@@ -3806,7 +4463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="27" thickBot="1">
+    <row r="30" spans="1:13" ht="16" thickBot="1">
       <c r="A30" s="13" t="s">
         <v>46</v>
       </c>
@@ -3829,7 +4486,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1">
+    <row r="31" spans="1:13" ht="16" thickBot="1">
       <c r="C31" s="15"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -3837,7 +4494,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" ht="18" thickBot="1">
+    <row r="32" spans="1:13" ht="20" thickBot="1">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -3856,7 +4513,7 @@
       <c r="L32"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1">
+    <row r="33" spans="1:13" ht="16" thickBot="1">
       <c r="A33" s="11" t="s">
         <v>48</v>
       </c>
@@ -3883,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="27" thickBot="1">
+    <row r="34" spans="1:13" ht="31" thickBot="1">
       <c r="C34" s="15"/>
       <c r="I34" s="2" t="s">
         <v>5</v>
@@ -3905,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="27" thickBot="1">
+    <row r="35" spans="1:13" ht="31" thickBot="1">
       <c r="A35" s="13" t="s">
         <v>49</v>
       </c>
@@ -3936,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" thickBot="1">
+    <row r="36" spans="1:13" ht="20" thickBot="1">
       <c r="A36" s="11" t="s">
         <v>50</v>
       </c>
@@ -3967,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="17">
+    <row r="37" spans="1:13" ht="19">
       <c r="I37" s="2" t="s">
         <v>8</v>
       </c>
@@ -3988,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="26">
+    <row r="38" spans="1:13" ht="30">
       <c r="I38" s="2" t="s">
         <v>9</v>
       </c>
@@ -4009,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="26">
+    <row r="39" spans="1:13" ht="30">
       <c r="I39" s="2" t="s">
         <v>10</v>
       </c>
@@ -4030,7 +4687,7 @@
         <v>4745</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="26">
+    <row r="40" spans="1:13" ht="30">
       <c r="I40" s="2" t="s">
         <v>11</v>
       </c>
@@ -4051,7 +4708,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="27" thickBot="1">
+    <row r="41" spans="1:13" ht="20" thickBot="1">
       <c r="I41" s="1" t="s">
         <v>12</v>
       </c>
@@ -4077,7 +4734,7 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="en2" display="https://ods.od.nih.gov/factsheets/Zinc-HealthProfessional/ - en2"/>
+    <hyperlink ref="A2" r:id="rId1" location="en2" display="https://ods.od.nih.gov/factsheets/Zinc-HealthProfessional/ - en2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
